--- a/Proyecto/Venta/clientes-varios/clientes-inactivos/clientes-inactivos.xlsx
+++ b/Proyecto/Venta/clientes-varios/clientes-inactivos/clientes-inactivos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josem\OneDrive\Documentos\UiPath\Venta\clientes-varios\clientes-inactivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMEN\Documents\Gerenciales2\SOG21S25_201709282\Proyecto\Venta\clientes-varios\clientes-inactivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E11A4B6-E284-4251-93AC-B5BD957E1506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835D1F16-C606-4901-8ADD-FB42328A9738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -819,7 +819,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,7 +854,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -878,7 +878,7 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -902,7 +902,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A51" si="0">A3+1</f>
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -926,7 +926,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -950,7 +950,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -974,7 +974,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -998,7 +998,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1022,7 +1022,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -1046,7 +1046,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
@@ -1072,7 +1072,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1096,7 +1096,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1120,7 +1120,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
@@ -1144,7 +1144,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
@@ -1168,7 +1168,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
@@ -1192,7 +1192,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
         <v>51</v>
@@ -1216,7 +1216,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -1240,7 +1240,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
@@ -1264,7 +1264,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -1288,7 +1288,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
@@ -1312,7 +1312,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -1336,7 +1336,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
         <v>68</v>
@@ -1360,7 +1360,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
@@ -1384,7 +1384,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
         <v>74</v>
@@ -1408,7 +1408,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -1432,7 +1432,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
         <v>80</v>
@@ -1456,7 +1456,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s">
         <v>83</v>
@@ -1480,7 +1480,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="B28" t="s">
         <v>86</v>
@@ -1504,7 +1504,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s">
         <v>88</v>
@@ -1528,7 +1528,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s">
         <v>91</v>
@@ -1552,7 +1552,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s">
         <v>94</v>
@@ -1576,7 +1576,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="B32" t="s">
         <v>97</v>
@@ -1600,7 +1600,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
@@ -1624,7 +1624,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
         <v>100</v>
@@ -1648,7 +1648,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
         <v>103</v>
@@ -1672,7 +1672,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s">
         <v>106</v>
@@ -1696,7 +1696,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
         <v>108</v>
@@ -1720,7 +1720,7 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
         <v>110</v>
@@ -1744,7 +1744,7 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
         <v>113</v>
@@ -1768,7 +1768,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="B40" t="s">
         <v>116</v>
@@ -1792,7 +1792,7 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s">
         <v>118</v>
@@ -1816,7 +1816,7 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
@@ -1840,7 +1840,7 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -1864,7 +1864,7 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="B44" t="s">
         <v>124</v>
@@ -1888,7 +1888,7 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -1912,7 +1912,7 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="B46" t="s">
         <v>129</v>
@@ -1936,7 +1936,7 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s">
         <v>132</v>
@@ -1960,7 +1960,7 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="B48" t="s">
         <v>134</v>
@@ -1984,7 +1984,7 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="B49" t="s">
         <v>136</v>
@@ -2008,7 +2008,7 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="B50" t="s">
         <v>139</v>
@@ -2032,7 +2032,7 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
